--- a/biology/Botanique/Micrantheum_serpentinum/Micrantheum_serpentinum.xlsx
+++ b/biology/Botanique/Micrantheum_serpentinum/Micrantheum_serpentinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Micrantheum serpentinum est une espèce de plantes à fleurs de la famille des Picrodendraceae. C'est un arbuste ou un petit arbre endémique de Tasmanie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Micrantheum serpentinum est une espèce de plantes à fleurs de la famille des Picrodendraceae. C'est un arbuste ou un petit arbre endémique de Tasmanie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M. serpentinium est un arbuste qui atteint jusqu'à 3 mètres de hauteur[2]. Les feuilles font de 5 à 9 mm de long et de 1,5 à 3,3 mm de large[2].  Les fleurs jaune-verdâtre apparaissent généralement au printemps (de septembre à novembre)[2]. Les fleurs mâles et femelles apparaissent sur la même plante[2]. Elles sont situées à la base des feuilles[2] et sont solitaires ou en petits groupes[2]. Le fruit est jaune-brun, de forme ovale, de 3 à 3,3 mm de long et 2,3 à 2,7 mm de large[2]. Les fruits ont une excroissance violet-noir à l'extrémité et arrivent à maturité en été (environ janvier)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M. serpentinium est un arbuste qui atteint jusqu'à 3 mètres de hauteur. Les feuilles font de 5 à 9 mm de long et de 1,5 à 3,3 mm de large.  Les fleurs jaune-verdâtre apparaissent généralement au printemps (de septembre à novembre). Les fleurs mâles et femelles apparaissent sur la même plante. Elles sont situées à la base des feuilles et sont solitaires ou en petits groupes. Le fruit est jaune-brun, de forme ovale, de 3 à 3,3 mm de long et 2,3 à 2,7 mm de large. Les fruits ont une excroissance violet-noir à l'extrémité et arrivent à maturité en été (environ janvier).
 </t>
         </is>
       </c>
